--- a/02-Avancado1-Funcoes/05-FuncoesLogica/Aula-24-ExcelAvancado1-Universidade-FuncoesLogica.xlsx
+++ b/02-Avancado1-Funcoes/05-FuncoesLogica/Aula-24-ExcelAvancado1-Universidade-FuncoesLogica.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robson.svaamonde\Downloads\msexcel\02-Avancado1-Funcoes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robson.svaamonde\Documents\msexcel\02-Avancado1-Funcoes\05-FuncoesLogica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E34054F-CF9C-4834-98A3-E00E66EC4E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E3F22A-6E34-4BAE-A554-9EE1AE04F0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Médias Matemática" sheetId="1" r:id="rId1"/>
@@ -469,7 +469,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Média das Provas &gt;= Provas</t>
+      <t xml:space="preserve"> Média das Provas &gt;= Média de Aprovação das Provas</t>
     </r>
     <r>
       <rPr>
@@ -551,7 +551,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Média Ponderada dos Trabalho &gt;= Trabalhos</t>
+      <t>Média Ponderada dos Trabalho &gt;= Média de Aprovação dos Trabalhos</t>
     </r>
     <r>
       <rPr>
@@ -593,7 +593,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Condição de Faltas:</t>
+      <t>Condição das Faltas:</t>
     </r>
     <r>
       <rPr>
@@ -835,7 +835,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Média das Provas &gt;= Exame, Média Ponderada dos Trabalhos &gt;= Exame</t>
+      <t>Média das Provas &gt;= Valor Exame, Média Ponderada dos Trabalhos &gt;= Valor Exame</t>
     </r>
     <r>
       <rPr>
@@ -1221,9 +1221,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1234,6 +1231,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2230,81 +2230,81 @@
     </row>
     <row r="11" spans="1:14" s="3" customFormat="1"/>
     <row r="12" spans="1:14" s="3" customFormat="1">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
     </row>
     <row r="13" spans="1:14" s="3" customFormat="1">
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
     </row>
     <row r="14" spans="1:14" s="3" customFormat="1">
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
     </row>
     <row r="15" spans="1:14" s="3" customFormat="1">
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
     </row>
     <row r="16" spans="1:14" s="3" customFormat="1">
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
     </row>
     <row r="17" spans="2:15" s="3" customFormat="1"/>
     <row r="18" spans="2:15" ht="30">
@@ -2776,33 +2776,33 @@
       <c r="A1" s="14"/>
     </row>
     <row r="2" spans="1:5" s="15" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="30"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="1:5" s="15" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:5" s="15" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
     </row>
     <row r="5" spans="1:5" s="15" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
     </row>
     <row r="6" spans="1:5" s="15" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
     </row>
     <row r="7" spans="1:5" s="15" customFormat="1" ht="14.25"/>
     <row r="8" spans="1:5" ht="15.75">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="29"/>
+      <c r="C8" s="28"/>
     </row>
     <row r="9" spans="1:5">
       <c r="B9" s="1" t="s">
@@ -2897,33 +2897,33 @@
       <c r="A1" s="14"/>
     </row>
     <row r="2" spans="1:3" s="15" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="30"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="1:3" s="15" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:3" s="15" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
     </row>
     <row r="5" spans="1:3" s="15" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
     </row>
     <row r="6" spans="1:3" s="15" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
     </row>
     <row r="7" spans="1:3" s="15" customFormat="1" ht="14.25"/>
     <row r="8" spans="1:3" ht="17.100000000000001" customHeight="1">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="29"/>
+      <c r="C8" s="28"/>
     </row>
     <row r="9" spans="1:3" ht="14.1" customHeight="1">
       <c r="B9" s="16" t="s">
